--- a/A Organizers 01.xlsx
+++ b/A Organizers 01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02-Work\03-GraphicsWork\01 CNC Working\07 Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" tabRatio="811" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A010002" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="A020020" sheetId="6" r:id="rId8"/>
     <sheet name="A020021" sheetId="5" r:id="rId9"/>
     <sheet name="A020022" sheetId="8" r:id="rId10"/>
+    <sheet name="A020024" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="48">
   <si>
     <t>نوع الخشب المستخدم</t>
   </si>
@@ -168,6 +169,15 @@
   </si>
   <si>
     <t>A020007</t>
+  </si>
+  <si>
+    <t>حامل رأسي طويل</t>
+  </si>
+  <si>
+    <t>سعر البيع</t>
+  </si>
+  <si>
+    <t>A020024</t>
   </si>
 </sst>
 </file>
@@ -333,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -810,6 +826,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2274,6 +2296,386 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="17" width="17.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="20">
+        <f>D6/D8</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F2" s="22">
+        <f>E2*D4</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="G2" s="52">
+        <v>12</v>
+      </c>
+      <c r="H2" s="33">
+        <v>90</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="37">
+        <f>H2*I2</f>
+        <v>18</v>
+      </c>
+      <c r="K2" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="43">
+        <f>K2*H2</f>
+        <v>54</v>
+      </c>
+      <c r="M2" s="39">
+        <f>F2+J2</f>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="N2" s="21">
+        <f>L2+F2</f>
+        <v>90.666666666666657</v>
+      </c>
+      <c r="O2" s="15">
+        <f>M10/G2</f>
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="P2" s="17">
+        <f>N10/G2</f>
+        <v>7.5555555555555545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <f>P4</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <f>P6</f>
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <f>P8</f>
+        <v>1.5</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="Q8" s="49">
+        <f>P10-O10</f>
+        <v>2.9999999999999982</v>
+      </c>
+      <c r="R8" s="55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="50">
+        <f>M2+M4+M6+M8</f>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="N10" s="51">
+        <f>N2+N4+N6+N8</f>
+        <v>90.666666666666657</v>
+      </c>
+      <c r="O10" s="8">
+        <f>O2+O4+O6+O8</f>
+        <v>8.5555555555555554</v>
+      </c>
+      <c r="P10" s="23">
+        <f>P2+P4+P6+P8</f>
+        <v>11.555555555555554</v>
+      </c>
+      <c r="Q10" s="49">
+        <f>Q8*G2</f>
+        <v>35.999999999999979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
@@ -2649,7 +3051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
